--- a/SE202526/Management/Work_Breakdown_Structure.xlsx
+++ b/SE202526/Management/Work_Breakdown_Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059c692484dd0481/uni/Semestre5/ES/SE2526_67775_67804_67286_68130_68547_67763/SE202526/Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95229DF5-9C92-4D15-B70D-F0E92C4C89EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{95229DF5-9C92-4D15-B70D-F0E92C4C89EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4AC7CC-BA18-4753-B925-830BFC96C11F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9855" windowWidth="29040" windowHeight="15720" xr2:uid="{B7004714-AD48-4058-A71F-4BA2362B2B43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12072" windowHeight="12336" xr2:uid="{B7004714-AD48-4058-A71F-4BA2362B2B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -96,16 +96,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518264</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>37108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>125260</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>117118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -120,8 +120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="388620"/>
-          <a:ext cx="1181100" cy="984885"/>
+          <a:off x="5361661" y="412889"/>
+          <a:ext cx="1423270" cy="1019462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -281,11 +281,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2.1</a:t>
+            <a:t>US3: Define </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> Official player experience (our own, Trello board)</a:t>
+            <a:t>3 new functionalities</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -485,11 +485,19 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.1.1 Game</a:t>
+            <a:t>US1:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> familiarisation</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>General grasp of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t> game mechanics</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -553,11 +561,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.1.2</a:t>
+            <a:t>US2:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> Code familiarisation</a:t>
+            <a:t> Read the codebase</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -621,13 +629,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.1.1.1 Playing the first</a:t>
+            <a:t>T1: Play the first area of the game</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> map</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -643,8 +646,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>167096</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -659,8 +662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3993425" y="7252607"/>
-          <a:ext cx="1684564" cy="958759"/>
+          <a:off x="3952044" y="7703507"/>
+          <a:ext cx="1663874" cy="1221288"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -689,18 +692,18 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.1.2.1</a:t>
+            <a:t>T2:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>Surface-level</a:t>
+            <a:t>Read through the classes</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> code readthrough</a:t>
+            <a:t> in the codebase</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -710,16 +713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>4899</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514647</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385472</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>73208</xdr:rowOff>
+      <xdr:rowOff>52331</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -734,8 +737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749142" y="7257506"/>
-          <a:ext cx="1700892" cy="952773"/>
+          <a:off x="5963469" y="7687529"/>
+          <a:ext cx="1687099" cy="1007761"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -763,155 +766,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2.1</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t>.1 Potential early game helpful features</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83548</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>554082</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle: Rounded Corners 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F535318-F251-4391-9907-E75FBE7A624E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9268369" y="7274923"/>
-          <a:ext cx="1695177" cy="1147898"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2.1.2</a:t>
+            <a:t>T3:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t>Group-assisted functionality brainstorming</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21227</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>484141</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124369</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle: Rounded Corners 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB5AB13-4A3E-4A9C-823E-1C4C9A13B484}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11655334" y="5565321"/>
-          <a:ext cx="1687557" cy="927191"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2.2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t>Early functionality prototyping</a:t>
+            <a:t>Define roughly functionality 1</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -922,15 +785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>117117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>21348</xdr:colOff>
+      <xdr:colOff>23140</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>169968</xdr:rowOff>
+      <xdr:rowOff>166157</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -948,8 +811,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5820844" y="1699636"/>
-          <a:ext cx="616986" cy="2298"/>
+          <a:off x="5768986" y="1736660"/>
+          <a:ext cx="612711" cy="4091"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1217,7 +1080,9 @@
           <a:ext cx="770165" cy="15511"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3194"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1239,69 +1104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>231183</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>252683</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Connector: Elbow 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FC0874-531A-78F9-69EF-3E9F91D470AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10241551" y="3307759"/>
-          <a:ext cx="819694" cy="3695429"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>252685</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147349</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>98516</xdr:rowOff>
+      <xdr:rowOff>102327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>215674</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:colOff>218170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1319,8 +1131,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7797982" y="6269219"/>
-          <a:ext cx="792751" cy="1187632"/>
+          <a:off x="7339994" y="6333408"/>
+          <a:ext cx="821147" cy="1887095"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1346,15 +1158,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>215674</xdr:colOff>
+      <xdr:colOff>218168</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>98516</xdr:rowOff>
+      <xdr:rowOff>102327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317863</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>18505</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285133</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1366,14 +1178,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="25" idx="0"/>
+          <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9049363" y="6205470"/>
-          <a:ext cx="804453" cy="1326832"/>
+          <a:off x="9224116" y="6336379"/>
+          <a:ext cx="823234" cy="1883239"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1452,15 +1265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
+      <xdr:colOff>538932</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>553267</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:colOff>546008</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1478,8 +1291,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4435657" y="6848746"/>
-          <a:ext cx="798739" cy="8981"/>
+          <a:off x="4352627" y="7272153"/>
+          <a:ext cx="855632" cy="7076"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1557,16 +1370,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2.2.1</a:t>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>T6:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t>Trial modification of the code</a:t>
+            <a:t>Trial modification of  code</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
@@ -1576,16 +1388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>246969</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218168</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>126273</xdr:rowOff>
+      <xdr:rowOff>102327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>249827</xdr:colOff>
+      <xdr:colOff>250777</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>173081</xdr:rowOff>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1597,14 +1409,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="2"/>
           <a:endCxn id="58" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="12117637" y="6870177"/>
-          <a:ext cx="754379" cy="2858"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10113629" y="5446866"/>
+          <a:ext cx="826126" cy="3665157"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1625,6 +1438,148 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51183</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>527433</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796AA7D2-972D-452A-B464-0AFD9C7AE056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7921704" y="7683353"/>
+          <a:ext cx="1687099" cy="1007761"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>T4: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>Define roughly functionality 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47008</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AB6551-F4CF-4E90-9E02-0C136BD7020E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9733803" y="7689616"/>
+          <a:ext cx="1687099" cy="1007761"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>T5:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>Define roughly functionality 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1949,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED716E8-F608-4006-B5DA-359448DC4BDE}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SE202526/Management/Work_Breakdown_Structure.xlsx
+++ b/SE202526/Management/Work_Breakdown_Structure.xlsx
@@ -1,49 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059c692484dd0481/uni/Semestre5/ES/SE2526_67775_67804_67286_68130_68547_67763/SE202526/Management/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{95229DF5-9C92-4D15-B70D-F0E92C4C89EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4AC7CC-BA18-4753-B925-830BFC96C11F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12072" windowHeight="12336" xr2:uid="{B7004714-AD48-4058-A71F-4BA2362B2B43}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Week 2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -56,12 +71,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -69,63 +84,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>518264</xdr:colOff>
+      <xdr:colOff>518400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37108</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>125260</xdr:colOff>
+      <xdr:colOff>124920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>117118</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A73E917-F7FF-CB65-C3C2-568A76178649}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="Rectangle: Rounded Corners 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5361661" y="412889"/>
-          <a:ext cx="1423270" cy="1019462"/>
+          <a:off x="6019920" y="398880"/>
+          <a:ext cx="1669680" cy="984600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -139,56 +182,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800"/>
+            <a:rPr b="0" lang="en-GB" sz="1800" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>Mindustry Project</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1800" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67AD9D5-A279-4CC4-93C6-CD671A881439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Rectangle: Rounded Corners 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2569845" y="3853815"/>
-          <a:ext cx="1693545" cy="977265"/>
+          <a:off x="2882160" y="3853800"/>
+          <a:ext cx="1849680" cy="976680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -202,61 +265,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.1</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1.1 Information Gathering</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> Information Gathering</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>588917</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>452845</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>102327</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29638273-DD31-4CF4-BD9E-CC65C57BD94F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7936774" y="5517697"/>
-          <a:ext cx="1700892" cy="952773"/>
+          <a:off x="8841600" y="5644080"/>
+          <a:ext cx="1926360" cy="973080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -270,61 +348,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>US3: Define </a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US3: Define 3 new functionalities</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t>3 new functionalities</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>595447</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>74023</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>484958</xdr:colOff>
+      <xdr:colOff>484560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>148318</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1086A4B6-D44A-406F-ADA6-260883937ECC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943304" y="3788773"/>
-          <a:ext cx="1726475" cy="958759"/>
+          <a:off x="8848080" y="3874680"/>
+          <a:ext cx="1951920" cy="978480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -338,61 +431,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.2</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1.2 Brainstorming functionalities</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> Brainstorming functionalities</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>387765</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>166158</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>263940</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>55940</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B504E48E-6375-4D2A-B472-440978A54AE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5275075" y="2005468"/>
-          <a:ext cx="1708917" cy="993369"/>
+          <a:off x="5889240" y="1976040"/>
+          <a:ext cx="1938960" cy="975240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -406,61 +514,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>1.</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1. New functionality planning</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> New functionality planning</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
+      <xdr:colOff>577080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424815</xdr:colOff>
+      <xdr:colOff>424440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F362A4B3-9625-4EFF-86FB-B79C6F0D53FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1186815" y="5621655"/>
-          <a:ext cx="1676400" cy="979170"/>
+          <a:off x="1264680" y="5621760"/>
+          <a:ext cx="1910520" cy="978840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -474,69 +597,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>US1:</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US1: General grasp of game mechanics</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>General grasp of</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> game mechanics</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>159840</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8564E053-BB4D-43A1-B604-A7383DBCE529}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970020" y="5621655"/>
-          <a:ext cx="1676400" cy="977265"/>
+          <a:off x="4438800" y="5621760"/>
+          <a:ext cx="1910520" cy="977040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -550,61 +680,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>US2:</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US2: Read the codebase</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> Read the codebase</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>574494</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161381</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422094</xdr:colOff>
+      <xdr:colOff>421920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>58783</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle: Rounded Corners 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F414AD-A64B-437A-91D6-8C211EC345E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1186815" y="7237095"/>
-          <a:ext cx="1684565" cy="958759"/>
+          <a:off x="1262160" y="7400160"/>
+          <a:ext cx="1910520" cy="983160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -618,56 +763,76 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T1: Play the first area of the game</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>319496</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>167096</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>93946</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B056D490-F5B9-47BB-B9F9-F39731003BAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952044" y="7703507"/>
-          <a:ext cx="1663874" cy="1221288"/>
+          <a:off x="4445640" y="7419960"/>
+          <a:ext cx="1910520" cy="1179360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -681,68 +846,99 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T2:</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>Read through the classes</a:t>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>Read through the classes in the codebase</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> in the codebase</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>514647</xdr:colOff>
+      <xdr:colOff>514800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>171913</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>385472</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>52331</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle: Rounded Corners 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE05D71-FA8E-4D12-A33F-DA24E0AAA094}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5963469" y="7687529"/>
-          <a:ext cx="1687099" cy="1007761"/>
+          <a:off x="6704280" y="7410960"/>
+          <a:ext cx="1933560" cy="966240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -756,597 +952,479 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T3:</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>Define roughly functionality 1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>117117</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>23140</xdr:colOff>
+      <xdr:colOff>23040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>166157</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Connector: Elbow 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DA9A1F-0B6A-A3C1-B602-14863BB3B831}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connector: Elbow 29"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5768986" y="1736660"/>
-          <a:ext cx="612711" cy="4091"/>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="6602040" y="1677600"/>
+          <a:ext cx="592200" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>370523</xdr:colOff>
+      <xdr:colOff>370440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>59751</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>20645</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Connector: Elbow 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEE2ED2-BF49-8B8A-568C-55B307C578F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="3808800" y="2954520"/>
+          <a:ext cx="3089160" cy="902880"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6897600" y="2954880"/>
+          <a:ext cx="2961720" cy="919800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connector: Elbow 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="2259360" y="4834080"/>
+          <a:ext cx="1549440" cy="791280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49988"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3808800" y="4834440"/>
+          <a:ext cx="1549440" cy="791280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connector: Elbow 41"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4347063" y="1975104"/>
-          <a:ext cx="881864" cy="2711729"/>
+          <a:off x="9455400" y="5239080"/>
+          <a:ext cx="791280" cy="15840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50022"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20645</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>59749</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>231184</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>74022</xdr:rowOff>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Connector: Elbow 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE27237-1669-ADD7-A11D-2285B203C35A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="15" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 46"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7024403" y="2009491"/>
-          <a:ext cx="898737" cy="2659825"/>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="7711920" y="6617160"/>
+          <a:ext cx="2134440" cy="793440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9846000" y="6617520"/>
+          <a:ext cx="2130480" cy="795600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50008"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>196761</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370524</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Connector: Elbow 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3820C7F-35C0-2ED4-47FB-859C838604CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 50"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2347845" y="4414633"/>
-          <a:ext cx="770165" cy="1398406"/>
+          <a:off x="1857600" y="7000200"/>
+          <a:ext cx="799560" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370524</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538920</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:colOff>545760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Connector: Elbow 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A37A794-5CD9-2E87-DD21-9C7FCFA4E449}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 52"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3746251" y="4414633"/>
-          <a:ext cx="770165" cy="1398406"/>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="4945680" y="7005600"/>
+          <a:ext cx="821520" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50021"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215674</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>231185</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32113</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Connector: Elbow 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCCB9FB-7BF2-438E-85A1-998A28E44AF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8410847" y="5122954"/>
-          <a:ext cx="770165" cy="15511"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 3194"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>147349</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>102327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218170</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171913</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Connector: Elbow 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330EE094-4FB5-C14D-0511-39B0DA14308F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="24" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7339994" y="6333408"/>
-          <a:ext cx="821147" cy="1887095"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218168</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>102327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285133</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>174000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Connector: Elbow 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B596574-6490-8B6F-1946-503A75398AB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9224116" y="6336379"/>
-          <a:ext cx="823234" cy="1883239"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>192135</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>87629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>196761</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Connector: Elbow 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB854FCD-08DE-9BB7-C589-21CA15DE85ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1639798" y="6845073"/>
-          <a:ext cx="783227" cy="4626"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>538932</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546008</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Connector: Elbow 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E23BA5-3476-01F5-4C0D-A2BECF4A17A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="23" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4352627" y="7272153"/>
-          <a:ext cx="855632" cy="7076"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>21226</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>480330</xdr:colOff>
+      <xdr:colOff>479880</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>42726</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle: Rounded Corners 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6940A289-E049-4453-9A79-A8B4A7633E74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11655333" y="7252606"/>
-          <a:ext cx="1683747" cy="927191"/>
+          <a:off x="13087800" y="7415640"/>
+          <a:ext cx="1833840" cy="951480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1360,118 +1438,137 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T6:</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>Trial modification of  code</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>218168</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>102327</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>250777</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Connector: Elbow 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583B649B-3AD9-ABEF-E870-D08F9E303848}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 59"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10113629" y="5446866"/>
-          <a:ext cx="826126" cy="3665157"/>
+        <a:xfrm>
+          <a:off x="9846000" y="6617520"/>
+          <a:ext cx="4159080" cy="798480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>51183</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>167737</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>527433</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>48155</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796AA7D2-972D-452A-B464-0AFD9C7AE056}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Rectangle: Rounded Corners 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7921704" y="7683353"/>
-          <a:ext cx="1687099" cy="1007761"/>
+          <a:off x="8991360" y="7406640"/>
+          <a:ext cx="1851120" cy="966240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1485,64 +1582,99 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T4: </a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>Define roughly functionality 2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>47008</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>174000</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523258</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>54418</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AB6551-F4CF-4E90-9E02-0C136BD7020E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9733803" y="7689616"/>
-          <a:ext cx="1687099" cy="1007761"/>
+          <a:off x="11050560" y="7412760"/>
+          <a:ext cx="1851120" cy="966240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1556,27 +1688,57 @@
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>T5:</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
             <a:t>Define roughly functionality 3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1400"/>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1585,196 +1747,2473 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle: Rounded Corners 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019920" y="387720"/>
+          <a:ext cx="1669680" cy="955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1800" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>Mindustry Project</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1800" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle: Rounded Corners 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2882160" y="3733920"/>
+          <a:ext cx="1849680" cy="948240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1.1 Information Gathering</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452520</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle: Rounded Corners 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8841600" y="5466960"/>
+          <a:ext cx="1926360" cy="944280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US4: Brainstorm potential functionalities</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>595440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle: Rounded Corners 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848080" y="3754800"/>
+          <a:ext cx="1951920" cy="950040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1.2 Brainstorming functionalities</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5889240" y="1918800"/>
+          <a:ext cx="1938960" cy="941040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>1. New functionality planning</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>424440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264680" y="5444640"/>
+          <a:ext cx="1910520" cy="950040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US1: General grasp of game mechanics</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>159840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle: Rounded Corners 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438800" y="5444640"/>
+          <a:ext cx="1910520" cy="948240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US2: Read the codebase</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>574560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262160" y="7171560"/>
+          <a:ext cx="1910520" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T1: Play the first area of the game</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166680</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle: Rounded Corners 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445640" y="7185600"/>
+          <a:ext cx="1910520" cy="1145160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T2:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>Read through the classes in the codebase</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6704280" y="7182360"/>
+          <a:ext cx="1933560" cy="931680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T11: Define functionality 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Elbow 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="6610680" y="1629000"/>
+          <a:ext cx="574920" cy="4680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="3808800" y="2863440"/>
+          <a:ext cx="3089160" cy="874440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connector: Elbow 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6897600" y="2863440"/>
+          <a:ext cx="2961720" cy="891360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connector: Elbow 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="2259360" y="4685760"/>
+          <a:ext cx="1549440" cy="762480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49988"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Connector: Elbow 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3808800" y="4686120"/>
+          <a:ext cx="1549440" cy="762480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Connector: Elbow 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9469800" y="5076360"/>
+          <a:ext cx="762480" cy="15840"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50023"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1" rot="10800000">
+          <a:off x="7711920" y="6411600"/>
+          <a:ext cx="2134440" cy="770760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9846000" y="6411600"/>
+          <a:ext cx="2130480" cy="772920"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50008"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Connector: Elbow 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1868760" y="6782760"/>
+          <a:ext cx="776880" cy="5040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50023"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538920</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connector: Elbow 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="4959720" y="6785640"/>
+          <a:ext cx="793080" cy="7200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>415440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle: Rounded Corners 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7980120" y="8526240"/>
+          <a:ext cx="1851120" cy="1045440"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T12: Define functionality 2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle: Rounded Corners 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11050560" y="7184160"/>
+          <a:ext cx="1851120" cy="931680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T13: Define functionality 3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525960</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>401760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle: Rounded Corners 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153800" y="8611200"/>
+          <a:ext cx="1938960" cy="975240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T7: Make feature goals more specific.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connector: Elbow 1"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8206560" y="7104240"/>
+          <a:ext cx="2291040" cy="905040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54141"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connector: Elbow 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9846000" y="6411600"/>
+          <a:ext cx="308160" cy="2687400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 73684"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>407160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle: Rounded Corners 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13597560" y="2027520"/>
+          <a:ext cx="1938960" cy="941040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>2. Implementation</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Connector: Elbow 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7678800" y="905760"/>
+          <a:ext cx="5919120" cy="1592640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48397"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>128880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Connector: Elbow 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="14001120" y="3534480"/>
+          <a:ext cx="1135800" cy="3960"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58370"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>434160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle: Rounded Corners 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13624560" y="4103640"/>
+          <a:ext cx="1938960" cy="941040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>2.1 Code study</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>450720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle: Rounded Corners 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13653720" y="5827680"/>
+          <a:ext cx="1926360" cy="1139400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>US5: Study the code around potential new features</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>174960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" rot="16200000">
+          <a:off x="14191560" y="5402520"/>
+          <a:ext cx="832680" cy="18360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38581"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>399600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle: Rounded Corners 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677840" y="7798680"/>
+          <a:ext cx="1851120" cy="931680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T10: Water piping system associated code.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>660960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>448920</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle: Rounded Corners 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478280" y="7565760"/>
+          <a:ext cx="1851120" cy="931680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T9: Undo/redo feature associated code.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle: Rounded Corners 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11316960" y="5564520"/>
+          <a:ext cx="1851120" cy="931680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="156082"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="092a38"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1191"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="992"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>T8: Brainstorm further features for replacement</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-GB" sz="1400" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10525320" y="6002640"/>
+          <a:ext cx="942120" cy="720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>589680</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connector: Elbow 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14556960" y="6885720"/>
+          <a:ext cx="972360" cy="1379160"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 119555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>450720</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>211320</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connector: Elbow 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15580080" y="6397200"/>
+          <a:ext cx="1824120" cy="1168920"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="156082"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1782,33 +4221,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1821,13 +4251,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1837,15 +4261,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1853,7 +4275,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1861,56 +4282,32 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED716E8-F608-4006-B5DA-359448DC4BDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1935,7 +4332,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1960,7 +4357,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1985,7 +4382,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2010,7 +4407,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2035,7 +4432,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2060,7 +4457,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2085,7 +4482,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2110,7 +4507,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2135,7 +4532,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2160,7 +4557,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2185,7 +4582,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2210,7 +4607,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2235,7 +4632,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2260,7 +4657,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2285,7 +4682,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2310,7 +4707,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2335,7 +4732,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2360,7 +4757,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2385,7 +4782,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2410,7 +4807,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2435,7 +4832,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2460,7 +4857,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2485,7 +4882,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2510,7 +4907,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2535,7 +4932,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2560,7 +4957,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2585,7 +4982,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2610,7 +5007,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2635,7 +5032,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2660,7 +5057,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2685,7 +5082,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2710,7 +5107,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2735,7 +5132,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2760,7 +5157,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2785,7 +5182,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2810,7 +5207,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2835,7 +5232,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2860,7 +5257,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2885,7 +5282,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2910,7 +5307,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2935,7 +5332,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2960,7 +5357,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2985,7 +5382,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3010,7 +5407,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3035,7 +5432,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3060,7 +5457,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3085,7 +5482,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3110,7 +5507,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3136,7 +5533,1304 @@
       <c r="W49" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W84"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG49" activeCellId="0" sqref="AG49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="X1:AE50"/>
+    <mergeCell ref="A50:C84"/>
+    <mergeCell ref="D50:W84"/>
+    <mergeCell ref="X51:AE84"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>